--- a/biology/Botanique/Anthurium_crystallinum/Anthurium_crystallinum.xlsx
+++ b/biology/Botanique/Anthurium_crystallinum/Anthurium_crystallinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthurium crystallinum est une espèce de plantes de la famille Araceae et du genre Anthurium. Elle est originaire des forêts tropicales d'Amérique centrale et du sud (zone allant du Panama au Pérou).
 Nécessitant une température minimum de 16 °C et un haut degré d'humidité atmosphérique, cette espèce est cultivée dans nos pays tempérés en serre chaude et humide ou parfois en appartement.
